--- a/首板交易记录_20250428_failed.xlsx
+++ b/首板交易记录_20250428_failed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="交易明细" sheetId="1" r:id="rId1"/>
@@ -13,25 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易明细!$A$1:$I$786</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="1694">
   <si>
     <t>股票代码</t>
   </si>
@@ -10739,11 +10726,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{840ed3fa-f859-4d71-83f7-c652bf301d55}"/>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -10783,8 +10765,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6306820" y="182880"/>
-        <a:ext cx="4625340" cy="2636520"/>
+        <a:off x="6541135" y="213360"/>
+        <a:ext cx="4785360" cy="3063240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11085,18 +11067,18 @@
   <dimension ref="A1:J786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="10.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="10.2592592592593" customWidth="1"/>
-    <col min="3" max="5" width="12.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="6.71296296296296" customWidth="1"/>
-    <col min="7" max="9" width="8.71296296296296" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.2589285714286" customWidth="1"/>
+    <col min="3" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="6.71428571428571" customWidth="1"/>
+    <col min="7" max="9" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11906,7 +11888,7 @@
         <v>0.0114</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -11933,6 +11915,9 @@
       </c>
       <c r="I28" s="3">
         <v>-0.0302</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -12805,7 +12790,7 @@
         <v>0.1923</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -12832,6 +12817,9 @@
       </c>
       <c r="I59" s="3">
         <v>-0.0634</v>
+      </c>
+      <c r="J59" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -12950,7 +12938,7 @@
         <v>0.1437</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -12977,6 +12965,9 @@
       </c>
       <c r="I64" s="3">
         <v>-0.081</v>
+      </c>
+      <c r="J64" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -13037,7 +13028,7 @@
         <v>0.1002</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -13065,8 +13056,11 @@
       <c r="I67" s="3">
         <v>-0.0336</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -13094,8 +13088,11 @@
       <c r="I68" s="3">
         <v>-0.0464</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -13123,8 +13120,11 @@
       <c r="I69" s="3">
         <v>-0.0757</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>171</v>
       </c>
@@ -13152,8 +13152,11 @@
       <c r="I70" s="3">
         <v>-0.0687</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -13181,8 +13184,11 @@
       <c r="I71" s="3">
         <v>-0.0588</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>176</v>
       </c>
@@ -13210,8 +13216,11 @@
       <c r="I72" s="3">
         <v>-0.0716</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -13238,6 +13247,9 @@
       </c>
       <c r="I73" s="3">
         <v>-0.0816</v>
+      </c>
+      <c r="J73" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -13269,7 +13281,7 @@
         <v>0.0059</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -13296,6 +13308,9 @@
       </c>
       <c r="I75" s="3">
         <v>-0.0312</v>
+      </c>
+      <c r="J75" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -33918,7 +33933,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I786" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:I786">
     <sortState ref="A1:I786">
       <sortCondition ref="D2" descending="1"/>
     </sortState>
@@ -33939,7 +33954,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
